--- a/client_report.xlsx
+++ b/client_report.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,7 +55,44 @@
     <t xml:space="preserve">Location Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Speed（Km/h）</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Km/h</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">From</t>
@@ -1763,7 +1808,7 @@
     <t xml:space="preserve">110</t>
   </si>
   <si>
-    <t xml:space="preserve">T669DPQ</t>
+    <t xml:space="preserve">T669DPQ (TCR)</t>
   </si>
   <si>
     <t xml:space="preserve">7028605889</t>
@@ -1781,7 +1826,7 @@
     <t xml:space="preserve">111</t>
   </si>
   <si>
-    <t xml:space="preserve">T202DYR</t>
+    <t xml:space="preserve">T202DYR (DRR)</t>
   </si>
   <si>
     <t xml:space="preserve">7028605895</t>
@@ -1796,90 +1841,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1887,11 +1885,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1899,4024 +1897,4038 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="19.99"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="6" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="H8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="H10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="J11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="J12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="H13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="H14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="H15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="J16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="J17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="H18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="H19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="J20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="J21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="H22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="H23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="J24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="H25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="H26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+      <c r="H27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="H28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="H29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="H30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="J31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="H32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="J33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
+      <c r="H34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="J35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="J36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="J36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="J37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="H38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="H39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="J40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="J41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="J41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="J42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="H43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="J44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="J45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="J46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
+      <c r="J46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
+      <c r="J47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J48" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="J48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="H49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="H50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="H50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="H51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
+      <c r="H51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="J52" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="J52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="0" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="H53" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="H53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="0" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="H54" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
+      <c r="H54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="J55" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="J55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="0" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="H56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="H56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="0" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
+      <c r="H57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="J58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="J58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="J59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="0" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="H60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="J61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="0" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="J62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="0" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="H63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
+      <c r="H63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="H64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="H65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
+      <c r="H65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="J66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="0" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="H67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="H67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="H68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="H68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E69" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="H69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
+      <c r="H69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="H70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="H70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="0" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J71" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
+      <c r="J71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="J72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
+      <c r="J72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E73" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="J73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="J73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="0" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="J74" t="s">
-        <v>23</v>
-      </c>
-      <c r="K74" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="J74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="H75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J75" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" t="s">
-        <v>24</v>
-      </c>
-      <c r="L75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="H75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="H76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="H76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" s="0" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E77" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="H77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="H77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="J78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78" t="s">
+      <c r="J78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="H79" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="H79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="0" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="J80" t="s">
-        <v>23</v>
-      </c>
-      <c r="K80" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="J80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="0" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="H81" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="H81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="0" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K82" t="s">
-        <v>24</v>
-      </c>
-      <c r="L82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
+      <c r="H82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="H83" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
+      <c r="H83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K84" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
+      <c r="H84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="J85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" t="s">
-        <v>24</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="J85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" s="0" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="J86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" t="s">
-        <v>24</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="J86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="0" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="E87" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E87" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="H87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="H87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="J87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" t="s">
-        <v>24</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="J87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" s="0" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E88" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="H88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" t="s">
-        <v>24</v>
-      </c>
-      <c r="L88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
+      <c r="H88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="H89" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" t="s">
-        <v>24</v>
-      </c>
-      <c r="L89" t="s">
+      <c r="H89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="J90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="J90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="0" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="J91" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" t="s">
-        <v>24</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="J91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="J92" t="s">
-        <v>23</v>
-      </c>
-      <c r="K92" t="s">
-        <v>24</v>
-      </c>
-      <c r="L92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
+      <c r="J92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="H93" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K93" t="s">
-        <v>24</v>
-      </c>
-      <c r="L93" t="s">
+      <c r="H93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" s="0" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E94" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="H94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="H94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="0" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E95" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="J95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K95" t="s">
-        <v>24</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="J95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="0" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E96" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="H96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K96" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="H96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="0" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="H97" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K97" t="s">
-        <v>24</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="H97" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" s="0" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E98" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="H98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K98" t="s">
-        <v>24</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="H98" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="0" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="J99" t="s">
-        <v>23</v>
-      </c>
-      <c r="K99" t="s">
-        <v>24</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="J99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="J100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K100" t="s">
-        <v>24</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="J100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L100" s="0" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E101" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="J101" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="J101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" s="0" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="H102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" t="s">
-        <v>23</v>
-      </c>
-      <c r="K102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
+      <c r="H102" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="H103" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" t="s">
-        <v>23</v>
-      </c>
-      <c r="K103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L103" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
+      <c r="H103" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E104" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E104" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="H104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" t="s">
-        <v>24</v>
-      </c>
-      <c r="L104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
+      <c r="H104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="H105" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L105" t="s">
+      <c r="H105" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" s="0" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="H106" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" t="s">
-        <v>23</v>
-      </c>
-      <c r="K106" t="s">
-        <v>24</v>
-      </c>
-      <c r="L106" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
+      <c r="H106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="H107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" t="s">
-        <v>23</v>
-      </c>
-      <c r="K107" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="H107" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E108" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="J108" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" t="s">
-        <v>24</v>
-      </c>
-      <c r="L108" t="s">
+      <c r="J108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L108" s="0" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E109" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="H109" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" t="s">
-        <v>23</v>
-      </c>
-      <c r="K109" t="s">
-        <v>24</v>
-      </c>
-      <c r="L109" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
+      <c r="H109" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E110" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E110" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="J110" t="s">
-        <v>23</v>
-      </c>
-      <c r="K110" t="s">
-        <v>24</v>
-      </c>
-      <c r="L110" t="s">
+      <c r="J110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="0" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="J111" t="s">
-        <v>23</v>
-      </c>
-      <c r="K111" t="s">
-        <v>24</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="J111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L111" s="0" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="J112" t="s">
-        <v>23</v>
-      </c>
-      <c r="K112" t="s">
-        <v>24</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="J112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" s="0" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E113" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="J113" t="s">
-        <v>23</v>
-      </c>
-      <c r="K113" t="s">
-        <v>24</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="J113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113" s="0" t="s">
         <v>592</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>